--- a/biology/Botanique/Square_Gerbert_-_Blomet/Square_Gerbert_-_Blomet.xlsx
+++ b/biology/Botanique/Square_Gerbert_-_Blomet/Square_Gerbert_-_Blomet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Gerbert - Blomet est un square du 15e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On accède au square par le 113, rue Blomet, derrière l’église Saint-Lambert de Vaugirard.
 Le site est desservi par la ligne 12 à la station de métro Vaugirard.
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square a été nommé en hommage à Gerbert d’Aurillac (938-1003), pape connu sous le nom de Sylvestre II [1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square a été nommé en hommage à Gerbert d’Aurillac (938-1003), pape connu sous le nom de Sylvestre II .
 </t>
         </is>
       </c>
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,7 +619,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jeux pour enfants</t>
         </is>
